--- a/src/main/resources/template/excel/export/PurchaseDetail.xlsx
+++ b/src/main/resources/template/excel/export/PurchaseDetail.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lijy02\桌面\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13200"/>
+    <workbookView windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
     <author>lijy02</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>采购明细查询</t>
   </si>
@@ -145,7 +140,7 @@
     <t>${obj.supplierCode}</t>
   </si>
   <si>
-    <t>${obj.supplerName}</t>
+    <t>${obj.supplierName}</t>
   </si>
   <si>
     <t>${obj.formNo}</t>
@@ -199,12 +194,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,19 +219,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,12 +372,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -269,9 +586,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -282,44 +841,83 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -609,14 +1207,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="3" width="21.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
@@ -639,93 +1238,93 @@
     <col min="22" max="16384" width="11.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:20">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -791,9 +1390,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:T1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/template/excel/export/PurchaseDetail.xlsx
+++ b/src/main/resources/template/excel/export/PurchaseDetail.xlsx
@@ -196,12 +196,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -220,7 +220,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,82 +326,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -378,6 +378,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -391,114 +499,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,26 +587,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -618,6 +598,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,6 +637,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,10 +692,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,19 +704,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,112 +725,112 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1211,8 +1211,8 @@
   <sheetPr/>
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/src/main/resources/template/excel/export/PurchaseDetail.xlsx
+++ b/src/main/resources/template/excel/export/PurchaseDetail.xlsx
@@ -195,13 +195,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
-    <numFmt numFmtId="177" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="178" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -834,11 +835,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -853,13 +857,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1212,7 +1222,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1233,94 +1243,94 @@
     <col min="17" max="17" width="11.625" style="2" customWidth="1"/>
     <col min="18" max="18" width="19.375" style="2" customWidth="1"/>
     <col min="19" max="19" width="17.5" style="3" customWidth="1"/>
-    <col min="20" max="20" width="25.75" style="3" customWidth="1"/>
+    <col min="20" max="20" width="25.75" style="4" customWidth="1"/>
     <col min="21" max="21" width="11.625" style="1" customWidth="1"/>
     <col min="22" max="16384" width="11.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="10"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1382,7 +1392,7 @@
       <c r="S3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="4" t="s">
         <v>40</v>
       </c>
     </row>

--- a/src/main/resources/template/excel/export/PurchaseDetail.xlsx
+++ b/src/main/resources/template/excel/export/PurchaseDetail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200"/>
+    <workbookView windowWidth="24180" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -196,15 +196,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="178" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,13 +213,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -275,21 +311,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,6 +333,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -305,60 +364,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,6 +385,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -391,30 +409,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -427,12 +451,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -451,115 +469,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,6 +594,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -599,15 +625,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,20 +661,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,8 +686,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,10 +699,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,19 +711,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,123 +732,123 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -851,29 +857,44 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1221,18 +1242,18 @@
   <sheetPr/>
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="16.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="3" width="21.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="22.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="23.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="20" style="1" customWidth="1"/>
@@ -1242,157 +1263,157 @@
     <col min="16" max="16" width="15.75" style="2" customWidth="1"/>
     <col min="17" max="17" width="11.625" style="2" customWidth="1"/>
     <col min="18" max="18" width="19.375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="17.5" style="3" customWidth="1"/>
+    <col min="19" max="19" width="21.875" style="3" customWidth="1"/>
     <col min="20" max="20" width="25.75" style="4" customWidth="1"/>
-    <col min="21" max="21" width="11.625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.625" style="1"/>
+    <col min="21" max="21" width="11.625" style="5" customWidth="1"/>
+    <col min="22" max="16384" width="11.625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="15" spans="1:20">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="10"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="13"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="17" t="s">
         <v>40</v>
       </c>
     </row>

--- a/src/main/resources/template/excel/export/PurchaseDetail.xlsx
+++ b/src/main/resources/template/excel/export/PurchaseDetail.xlsx
@@ -195,14 +195,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="178" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="179" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -226,8 +227,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,7 +237,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,121 +297,75 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,187 +386,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,69 +606,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -691,6 +629,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -699,10 +700,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,19 +712,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -732,112 +733,112 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -875,7 +876,7 @@
     <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1243,7 +1244,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="16.5" outlineLevelRow="2"/>
@@ -1293,7 +1294,7 @@
       <c r="S1" s="12"/>
       <c r="T1" s="13"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" ht="15" spans="1:20">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>

--- a/src/main/resources/template/excel/export/PurchaseDetail.xlsx
+++ b/src/main/resources/template/excel/export/PurchaseDetail.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13200"/>
+    <workbookView windowWidth="21315" windowHeight="8730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <oleSize ref="A1:K3"/>
 </workbook>
 </file>
 
@@ -21,15 +22,6 @@
   <commentList>
     <comment ref="A1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">作者:
-</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -48,15 +40,6 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">YSCGD:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="T3")</t>
         </r>
       </text>
@@ -196,16 +179,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="178" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
     <numFmt numFmtId="179" formatCode="0.0000_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,21 +211,78 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -251,7 +291,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,6 +305,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -273,29 +320,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -303,69 +343,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,7 +376,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,25 +442,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,145 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,26 +593,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,15 +614,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,15 +648,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -692,6 +662,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -700,10 +696,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,137 +708,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -861,40 +857,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1243,34 +1230,29 @@
   <sheetPr/>
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="16.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="3" width="21.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20" style="1" customWidth="1"/>
-    <col min="12" max="13" width="11.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="16.5" style="2" customWidth="1"/>
-    <col min="16" max="16" width="15.75" style="2" customWidth="1"/>
-    <col min="17" max="17" width="11.625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="19.375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="21.875" style="3" customWidth="1"/>
-    <col min="20" max="20" width="25.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="12.625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="8.625" style="1" customWidth="1"/>
+    <col min="14" max="18" width="12.625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="18.625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="18.625" style="4" customWidth="1"/>
     <col min="21" max="21" width="11.625" style="5" customWidth="1"/>
     <col min="22" max="16384" width="11.625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:20">
+    <row r="1" ht="30" customHeight="1" spans="1:20">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1291,10 +1273,10 @@
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="13"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="12"/>
     </row>
-    <row r="2" ht="15" spans="1:20">
+    <row r="2" ht="20" customHeight="1" spans="1:20">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1334,29 +1316,29 @@
       <c r="M2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" customHeight="1" spans="1:20">
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
@@ -1396,25 +1378,25 @@
       <c r="M3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="14" t="s">
         <v>40</v>
       </c>
     </row>

--- a/src/main/resources/template/excel/export/PurchaseDetail.xlsx
+++ b/src/main/resources/template/excel/export/PurchaseDetail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,9 +30,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="T4")</t>
+          <t>jx:area(lastCell="T3")</t>
         </r>
       </text>
     </comment>
@@ -42,6 +43,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="T3")</t>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>采购明细查询</t>
   </si>
@@ -176,25 +178,6 @@
   </si>
   <si>
     <t>${obj.goodsCreateDate}</t>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>$[SUM(N3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(O3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(P3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(R3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -219,6 +202,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -226,6 +210,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -233,22 +218,26 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -296,7 +285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -340,9 +329,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -351,74 +337,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -438,7 +356,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -717,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -889,38 +807,6 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:T1"/>
